--- a/data/Crime_In_US_By_State/Crime_In_US_By_State_2000.xlsx
+++ b/data/Crime_In_US_By_State/Crime_In_US_By_State_2000.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4EE6262D-403E-DD44-A61F-A2EB983A1244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E817FA88-A409-814B-8BE2-08A4AAF7E9D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE9A" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE9A!$A$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">TABLE9A!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -375,11 +375,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -474,16 +474,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,11 +831,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K846"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K51" sqref="A1:K51"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="18"/>
